--- a/Prueba escritorio.xlsx
+++ b/Prueba escritorio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shona\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shona\Desktop\TP SOR Semáforos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -616,13 +616,13 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
